--- a/protocol/服务器网络通信协议.xlsx
+++ b/protocol/服务器网络通信协议.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TYW-DaLian\Desktop\设计文档\通信协议\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18005D9-AA2F-4151-BDDA-A01C569FF21A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AB770E-9DD6-4C91-A379-5903762B7C47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29100" yWindow="345" windowWidth="28770" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="服务器下发" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>指令ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,16 +74,36 @@
   </si>
   <si>
     <t>板子数据上报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前板子上软件版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>整数：
 bit0：灯，0闭1开
 bit1:电机，0闭1开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云端版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:请求查看版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ota</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:请求下载</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -606,6 +626,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="9" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -616,10 +647,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68EEA9D0-7256-4CE1-80C2-C5FFCDF75110}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -644,13 +675,13 @@
     </row>
     <row r="4" spans="1:3" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -661,7 +692,18 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
